--- a/Parameter_Estimation/Simulation_Parameters_main.xlsx
+++ b/Parameter_Estimation/Simulation_Parameters_main.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10512"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ayman/Desktop/FYP_project/Vulcan/InitializationData/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ayman/Desktop/FYP_project/Vulcan/Parameter_Estimation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{751EE224-4F14-334C-8D64-11C8F9BEF15D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27C202A3-1A85-4442-9319-F3CD43130FC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10240" yWindow="740" windowWidth="20000" windowHeight="18900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10240" yWindow="760" windowWidth="20000" windowHeight="17300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Initialization_Parameters" sheetId="1" r:id="rId1"/>
@@ -707,7 +707,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -742,10 +742,7 @@
     <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -758,14 +755,11 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
@@ -1100,10 +1094,10 @@
       <c r="B2" s="3"/>
     </row>
     <row r="3" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="B3" s="16">
+      <c r="B3" s="15">
         <v>0.02</v>
       </c>
     </row>
@@ -1114,10 +1108,10 @@
       <c r="B4" s="3"/>
     </row>
     <row r="5" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5" s="15">
         <v>0.5</v>
       </c>
     </row>
@@ -1146,10 +1140,10 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="B9" s="16">
+      <c r="B9" s="15">
         <v>0.3</v>
       </c>
     </row>
@@ -1178,10 +1172,10 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="B13" s="16">
+      <c r="B13" s="15">
         <v>0.2</v>
       </c>
     </row>
@@ -1210,10 +1204,10 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="B17" s="16">
+      <c r="B17" s="15">
         <v>0.3</v>
       </c>
     </row>
@@ -1242,16 +1236,16 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="17" t="s">
+      <c r="A21" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="B21" s="16">
+      <c r="B21" s="15">
         <v>500</v>
       </c>
-      <c r="C21" s="20">
+      <c r="C21" s="18">
         <v>100</v>
       </c>
-      <c r="D21" s="23"/>
+      <c r="D21" s="20"/>
     </row>
     <row r="22" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
@@ -1278,13 +1272,13 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="17" t="s">
+      <c r="A25" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="B25" s="16">
+      <c r="B25" s="15">
         <v>4</v>
       </c>
-      <c r="D25" s="24"/>
+      <c r="D25" s="20"/>
     </row>
     <row r="26" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
@@ -1311,16 +1305,16 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="17" t="s">
+      <c r="A29" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="B29" s="16">
+      <c r="B29" s="15">
         <v>100</v>
       </c>
-      <c r="C29" s="20">
+      <c r="C29" s="18">
         <v>950</v>
       </c>
-      <c r="D29" s="24"/>
+      <c r="D29" s="20"/>
     </row>
     <row r="30" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
@@ -1337,7 +1331,7 @@
       <c r="B31" s="2">
         <v>0</v>
       </c>
-      <c r="C31" s="20">
+      <c r="C31" s="18">
         <v>100</v>
       </c>
     </row>
@@ -1350,22 +1344,22 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="17" t="s">
+      <c r="A33" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="B33" s="16">
+      <c r="B33" s="15">
         <v>500</v>
       </c>
-      <c r="D33" s="24"/>
+      <c r="D33" s="20"/>
     </row>
     <row r="34" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="17" t="s">
+      <c r="A34" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="B34" s="16">
+      <c r="B34" s="15">
         <v>600</v>
       </c>
-      <c r="D34" s="24"/>
+      <c r="D34" s="20"/>
     </row>
     <row r="35" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
@@ -1374,16 +1368,16 @@
       <c r="B35" s="3"/>
     </row>
     <row r="36" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="17" t="s">
+      <c r="A36" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="B36" s="16">
+      <c r="B36" s="15">
         <v>10000</v>
       </c>
-      <c r="C36" s="20">
+      <c r="C36" s="18">
         <v>10000</v>
       </c>
-      <c r="D36" s="24"/>
+      <c r="D36" s="20"/>
     </row>
     <row r="37" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
@@ -1410,32 +1404,32 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="17" t="s">
+      <c r="A40" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="B40" s="16">
+      <c r="B40" s="15">
         <v>0.01</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="17" t="s">
+      <c r="A41" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="B41" s="16">
+      <c r="B41" s="15">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="17" t="s">
+      <c r="A42" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="B42" s="16">
+      <c r="B42" s="15">
         <v>500</v>
       </c>
-      <c r="C42" s="20">
+      <c r="C42" s="18">
         <v>1000</v>
       </c>
-      <c r="D42" s="24"/>
+      <c r="D42" s="20"/>
     </row>
     <row r="43" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
@@ -1462,10 +1456,10 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="17" t="s">
+      <c r="A46" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="B46" s="16">
+      <c r="B46" s="15">
         <f>INT(Main_Loop_Parameters!B4/Main_Loop_Parameters!B7)</f>
         <v>8</v>
       </c>
@@ -1495,10 +1489,10 @@
       </c>
     </row>
     <row r="50" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="17" t="s">
+      <c r="A50" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="B50" s="16">
+      <c r="B50" s="15">
         <v>10</v>
       </c>
     </row>
@@ -1527,19 +1521,18 @@
       </c>
     </row>
     <row r="54" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="17" t="s">
+      <c r="A54" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="B54" s="16">
+      <c r="B54" s="15">
         <v>2</v>
       </c>
-      <c r="C54" s="20">
+      <c r="C54" s="18">
         <v>2</v>
       </c>
-      <c r="D54" s="24">
+      <c r="D54" s="20">
         <v>1</v>
       </c>
-      <c r="E54" s="22"/>
     </row>
     <row r="55" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
@@ -1566,19 +1559,19 @@
       </c>
     </row>
     <row r="58" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="17" t="s">
+      <c r="A58" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="B58" s="16">
+      <c r="B58" s="15">
         <v>2</v>
       </c>
-      <c r="C58" s="20">
+      <c r="C58" s="18">
         <v>5</v>
       </c>
-      <c r="D58" s="24">
+      <c r="D58" s="20">
         <v>1</v>
       </c>
-      <c r="E58" s="21"/>
+      <c r="E58" s="19"/>
     </row>
     <row r="59" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
@@ -1605,33 +1598,33 @@
       </c>
     </row>
     <row r="62" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="17" t="s">
+      <c r="A62" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="B62" s="16">
+      <c r="B62" s="15">
         <v>0.4</v>
       </c>
-      <c r="D62" s="24"/>
+      <c r="D62" s="20"/>
     </row>
     <row r="63" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="17" t="s">
+      <c r="A63" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="B63" s="16">
+      <c r="B63" s="15">
         <v>0.25</v>
       </c>
-      <c r="C63" s="20">
+      <c r="C63" s="18">
         <v>0.25</v>
       </c>
-      <c r="D63" s="24">
+      <c r="D63" s="20">
         <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="17" t="s">
+      <c r="A64" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="B64" s="16">
+      <c r="B64" s="15">
         <v>10</v>
       </c>
     </row>
@@ -1642,16 +1635,16 @@
       <c r="B65" s="3"/>
     </row>
     <row r="66" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="17" t="s">
+      <c r="A66" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="B66" s="16">
+      <c r="B66" s="15">
         <v>10000</v>
       </c>
-      <c r="C66" s="20">
+      <c r="C66" s="18">
         <v>10000</v>
       </c>
-      <c r="D66" s="24"/>
+      <c r="D66" s="20"/>
     </row>
     <row r="67" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
@@ -1678,29 +1671,29 @@
       </c>
     </row>
     <row r="70" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="17" t="s">
+      <c r="A70" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="B70" s="16">
+      <c r="B70" s="15">
         <v>0.04</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="17" t="s">
+      <c r="A71" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="B71" s="16">
+      <c r="B71" s="15">
         <v>0.01</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="17" t="s">
+      <c r="A72" s="16" t="s">
         <v>159</v>
       </c>
-      <c r="B72" s="16">
+      <c r="B72" s="15">
         <v>500</v>
       </c>
-      <c r="C72" s="20">
+      <c r="C72" s="18">
         <v>1000</v>
       </c>
     </row>
@@ -1729,10 +1722,10 @@
       </c>
     </row>
     <row r="76" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="17" t="s">
+      <c r="A76" s="16" t="s">
         <v>163</v>
       </c>
-      <c r="B76" s="18">
+      <c r="B76" s="16">
         <f>INT(Main_Loop_Parameters!B4/Main_Loop_Parameters!B7)</f>
         <v>8</v>
       </c>
@@ -1762,13 +1755,13 @@
       </c>
     </row>
     <row r="80" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="17" t="s">
+      <c r="A80" s="16" t="s">
         <v>167</v>
       </c>
-      <c r="B80" s="16">
+      <c r="B80" s="15">
         <v>2000</v>
       </c>
-      <c r="C80" s="20">
+      <c r="C80" s="18">
         <v>2000</v>
       </c>
       <c r="D80">
@@ -1800,10 +1793,10 @@
       </c>
     </row>
     <row r="84" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="17" t="s">
+      <c r="A84" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="B84" s="16">
+      <c r="B84" s="15">
         <v>1</v>
       </c>
     </row>
@@ -1832,10 +1825,10 @@
       </c>
     </row>
     <row r="88" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="17" t="s">
+      <c r="A88" s="16" t="s">
         <v>175</v>
       </c>
-      <c r="B88" s="16">
+      <c r="B88" s="15">
         <v>1.5</v>
       </c>
     </row>
@@ -1864,27 +1857,27 @@
       </c>
     </row>
     <row r="92" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="17" t="s">
+      <c r="A92" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="B92" s="16">
+      <c r="B92" s="15">
         <v>0.4</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="17" t="s">
+      <c r="A93" s="16" t="s">
         <v>180</v>
       </c>
-      <c r="B93" s="16">
+      <c r="B93" s="15">
         <v>0.25</v>
       </c>
-      <c r="C93" s="20"/>
+      <c r="C93" s="18"/>
     </row>
     <row r="94" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="17" t="s">
+      <c r="A94" s="16" t="s">
         <v>181</v>
       </c>
-      <c r="B94" s="16">
+      <c r="B94" s="15">
         <v>100</v>
       </c>
     </row>
@@ -1919,10 +1912,10 @@
       </c>
     </row>
     <row r="99" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="17" t="s">
+      <c r="A99" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="B99" s="16">
+      <c r="B99" s="15">
         <v>0.05</v>
       </c>
     </row>
@@ -1933,18 +1926,18 @@
       <c r="B100" s="3"/>
     </row>
     <row r="101" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="17" t="s">
+      <c r="A101" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="B101" s="19">
+      <c r="B101" s="17">
         <v>1000000</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="17" t="s">
+      <c r="A102" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="B102" s="19">
+      <c r="B102" s="17">
         <v>0.5</v>
       </c>
     </row>
@@ -1962,7 +1955,7 @@
   <dimension ref="A1:C52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="135" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1990,7 +1983,7 @@
         <v>41</v>
       </c>
       <c r="B3" s="3">
-        <v>200</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2044,7 +2037,7 @@
       <c r="A10" t="s">
         <v>48</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10" s="12">
         <v>0.05</v>
       </c>
     </row>
@@ -2052,16 +2045,16 @@
       <c r="A11" t="s">
         <v>49</v>
       </c>
-      <c r="B11" s="13">
+      <c r="B11" s="12">
         <v>2</v>
       </c>
-      <c r="C11" s="25"/>
+      <c r="C11" s="21"/>
     </row>
     <row r="12" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>50</v>
       </c>
-      <c r="B12" s="12">
+      <c r="B12" s="3">
         <v>12</v>
       </c>
     </row>
@@ -2083,10 +2076,10 @@
       <c r="A15" t="s">
         <v>53</v>
       </c>
-      <c r="B15" s="14">
+      <c r="B15" s="13">
         <v>0.03</v>
       </c>
-      <c r="C15" s="25"/>
+      <c r="C15" s="21"/>
     </row>
     <row r="16" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
@@ -2095,7 +2088,7 @@
       <c r="B16" s="3">
         <v>1000</v>
       </c>
-      <c r="C16" s="25"/>
+      <c r="C16" s="21"/>
     </row>
     <row r="17" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
@@ -2104,7 +2097,7 @@
       <c r="B17" s="3">
         <v>1</v>
       </c>
-      <c r="C17" s="25"/>
+      <c r="C17" s="21"/>
     </row>
     <row r="18" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
@@ -2121,13 +2114,13 @@
       <c r="B19" s="3">
         <v>1</v>
       </c>
-      <c r="C19" s="25"/>
+      <c r="C19" s="21"/>
     </row>
     <row r="20" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>58</v>
       </c>
-      <c r="B20" s="15">
+      <c r="B20" s="14">
         <v>0.05</v>
       </c>
     </row>
@@ -2135,7 +2128,7 @@
       <c r="A21" t="s">
         <v>59</v>
       </c>
-      <c r="B21" s="15">
+      <c r="B21" s="14">
         <v>0.05</v>
       </c>
     </row>
@@ -2152,7 +2145,7 @@
       <c r="B23" s="3">
         <v>0.01</v>
       </c>
-      <c r="C23" s="25"/>
+      <c r="C23" s="21"/>
     </row>
     <row r="24" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
@@ -2161,7 +2154,7 @@
       <c r="B24" s="3">
         <v>10</v>
       </c>
-      <c r="C24" s="25"/>
+      <c r="C24" s="21"/>
     </row>
     <row r="25" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
@@ -2170,7 +2163,7 @@
       <c r="B25" s="3">
         <v>1</v>
       </c>
-      <c r="C25" s="25"/>
+      <c r="C25" s="21"/>
     </row>
     <row r="26" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
@@ -2184,7 +2177,7 @@
       <c r="A27" t="s">
         <v>65</v>
       </c>
-      <c r="B27" s="14">
+      <c r="B27" s="13">
         <v>20</v>
       </c>
     </row>
@@ -2195,13 +2188,13 @@
       <c r="B28" s="3">
         <v>1</v>
       </c>
-      <c r="C28" s="25"/>
+      <c r="C28" s="21"/>
     </row>
     <row r="29" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>67</v>
       </c>
-      <c r="B29" s="15">
+      <c r="B29" s="14">
         <v>0.05</v>
       </c>
     </row>
@@ -2209,7 +2202,7 @@
       <c r="A30" t="s">
         <v>68</v>
       </c>
-      <c r="B30" s="15">
+      <c r="B30" s="14">
         <v>0.05</v>
       </c>
     </row>
@@ -2226,7 +2219,7 @@
       <c r="B32" s="3">
         <v>2</v>
       </c>
-      <c r="C32" s="25"/>
+      <c r="C32" s="21"/>
     </row>
     <row r="33" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
@@ -2235,7 +2228,7 @@
       <c r="B33" s="3">
         <v>1.02</v>
       </c>
-      <c r="C33" s="25"/>
+      <c r="C33" s="21"/>
     </row>
     <row r="34" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
@@ -2244,7 +2237,7 @@
       <c r="B34" s="3">
         <v>1.002</v>
       </c>
-      <c r="C34" s="25"/>
+      <c r="C34" s="21"/>
     </row>
     <row r="35" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
@@ -2253,7 +2246,7 @@
       <c r="B35" s="3">
         <v>0.25</v>
       </c>
-      <c r="C35" s="25"/>
+      <c r="C35" s="21"/>
     </row>
     <row r="36" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
@@ -2294,7 +2287,7 @@
       <c r="B40" s="3">
         <v>2</v>
       </c>
-      <c r="C40" s="25"/>
+      <c r="C40" s="21"/>
     </row>
     <row r="41" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
@@ -2455,7 +2448,7 @@
       <c r="B6" s="9">
         <v>0.1</v>
       </c>
-      <c r="C6" s="21"/>
+      <c r="C6" s="19"/>
     </row>
     <row r="7" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
@@ -2486,7 +2479,7 @@
       <c r="B10" s="9">
         <v>0.1</v>
       </c>
-      <c r="C10" s="21"/>
+      <c r="C10" s="19"/>
     </row>
     <row r="11" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
@@ -2503,7 +2496,7 @@
       <c r="B12" s="3">
         <v>0.25</v>
       </c>
-      <c r="C12" s="21"/>
+      <c r="C12" s="19"/>
     </row>
     <row r="13" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
@@ -2534,7 +2527,7 @@
       <c r="B16" s="9">
         <v>0.1</v>
       </c>
-      <c r="C16" s="21"/>
+      <c r="C16" s="19"/>
     </row>
     <row r="17" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
@@ -2551,7 +2544,7 @@
       <c r="B18" s="3">
         <v>0.25</v>
       </c>
-      <c r="C18" s="21"/>
+      <c r="C18" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
